--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3804.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3804.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.841465899483519</v>
+        <v>1.885046362876892</v>
       </c>
       <c r="B1">
-        <v>2.153367423670902</v>
+        <v>7.446375370025635</v>
       </c>
       <c r="C1">
-        <v>2.771444713849513</v>
+        <v>6.915257453918457</v>
       </c>
       <c r="D1">
-        <v>4.151744295736067</v>
+        <v>2.308467626571655</v>
       </c>
       <c r="E1">
-        <v>0.7686366881324984</v>
+        <v>1.492987036705017</v>
       </c>
     </row>
   </sheetData>
